--- a/protected/modules/materialgroup.xlsx
+++ b/protected/modules/materialgroup.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Material Group</t>
   </si>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -190,6 +187,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -224,6 +222,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,54 +398,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="41.25" customHeight="1">
+    <row r="1" spans="1:6" ht="41.25" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="1" bottom="1" header="0.8" footer="0.8"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
